--- a/clean_final_shop_6modata.xlsx
+++ b/clean_final_shop_6modata.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pacmann Project\Business Analytics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BA6580-84B1-449D-B18C-ACB92CCCD787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -229,8 +243,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -278,13 +292,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -293,6 +321,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -339,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,9 +407,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +459,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,14 +652,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,8 +717,10 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -669,10 +755,10 @@
         <v>6402</v>
       </c>
       <c r="L2">
-        <v>136770.05</v>
+        <v>136770.04999999999</v>
       </c>
       <c r="M2">
-        <v>-267.086</v>
+        <v>-267.08600000000001</v>
       </c>
       <c r="N2" t="s">
         <v>60</v>
@@ -684,7 +770,7 @@
         <v>415.82</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -719,10 +805,10 @@
         <v>13262</v>
       </c>
       <c r="L3">
-        <v>283215.21</v>
+        <v>283215.21000000002</v>
       </c>
       <c r="M3">
-        <v>-483.951</v>
+        <v>-483.95100000000002</v>
       </c>
       <c r="N3" t="s">
         <v>60</v>
@@ -734,7 +820,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +849,7 @@
         <v>1606</v>
       </c>
       <c r="J4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K4">
         <v>1723</v>
@@ -784,7 +870,7 @@
         <v>441.82</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -822,7 +908,7 @@
         <v>284823.48</v>
       </c>
       <c r="M5">
-        <v>-235.921</v>
+        <v>-235.92099999999999</v>
       </c>
       <c r="N5" t="s">
         <v>62</v>
@@ -834,7 +920,7 @@
         <v>507.08</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -872,7 +958,7 @@
         <v>7717.77</v>
       </c>
       <c r="M6">
-        <v>-53.604</v>
+        <v>-53.603999999999999</v>
       </c>
       <c r="N6" t="s">
         <v>62</v>
@@ -884,7 +970,7 @@
         <v>483.91</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,7 +1008,7 @@
         <v>185824.49</v>
       </c>
       <c r="M7">
-        <v>-4606.713</v>
+        <v>-4606.7129999999997</v>
       </c>
       <c r="N7" t="s">
         <v>60</v>
@@ -931,10 +1017,10 @@
         <v>69</v>
       </c>
       <c r="P7">
-        <v>282.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>282.89999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -972,7 +1058,7 @@
         <v>294536.92</v>
       </c>
       <c r="M8">
-        <v>-5672.271</v>
+        <v>-5672.2709999999997</v>
       </c>
       <c r="N8" t="s">
         <v>60</v>
@@ -984,7 +1070,7 @@
         <v>127.11</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1022,7 +1108,7 @@
         <v>46026.32</v>
       </c>
       <c r="M9">
-        <v>-598.9930000000001</v>
+        <v>-598.99300000000005</v>
       </c>
       <c r="N9" t="s">
         <v>61</v>
@@ -1031,10 +1117,10 @@
         <v>69</v>
       </c>
       <c r="P9">
-        <v>265.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>265.02999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1057,7 +1143,7 @@
         <v>2940</v>
       </c>
       <c r="H10">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I10">
         <v>16946</v>
@@ -1084,7 +1170,7 @@
         <v>295.37</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1107,13 +1193,13 @@
         <v>69</v>
       </c>
       <c r="H11">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I11">
         <v>485</v>
       </c>
       <c r="J11">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="K11">
         <v>409</v>
@@ -1122,7 +1208,7 @@
         <v>8946.99</v>
       </c>
       <c r="M11">
-        <v>-75.73399999999999</v>
+        <v>-75.733999999999995</v>
       </c>
       <c r="N11" t="s">
         <v>62</v>
@@ -1134,7 +1220,7 @@
         <v>258.67</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1184,7 +1270,7 @@
         <v>260.75</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1234,7 +1320,7 @@
         <v>349.43</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1284,7 +1370,7 @@
         <v>264.56</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1334,7 +1420,7 @@
         <v>99.09</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1372,7 +1458,7 @@
         <v>3058.02</v>
       </c>
       <c r="M16">
-        <v>-71.82899999999999</v>
+        <v>-71.828999999999994</v>
       </c>
       <c r="N16" t="s">
         <v>65</v>
@@ -1384,7 +1470,7 @@
         <v>451.02</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1419,7 +1505,7 @@
         <v>3089</v>
       </c>
       <c r="L17">
-        <v>68146.25999999999</v>
+        <v>68146.259999999995</v>
       </c>
       <c r="M17">
         <v>-380.31</v>
@@ -1434,7 +1520,7 @@
         <v>470.95</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1457,7 +1543,7 @@
         <v>46</v>
       </c>
       <c r="H18">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I18">
         <v>416</v>
@@ -1472,7 +1558,7 @@
         <v>5552.73</v>
       </c>
       <c r="M18">
-        <v>-138.325</v>
+        <v>-138.32499999999999</v>
       </c>
       <c r="N18" t="s">
         <v>66</v>
@@ -1484,7 +1570,7 @@
         <v>65.84</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1522,7 +1608,7 @@
         <v>3576.13</v>
       </c>
       <c r="M19">
-        <v>-95.428</v>
+        <v>-95.427999999999997</v>
       </c>
       <c r="N19" t="s">
         <v>63</v>
@@ -1534,7 +1620,7 @@
         <v>153.59</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1572,7 +1658,7 @@
         <v>62357.68</v>
       </c>
       <c r="M20">
-        <v>-1321.609</v>
+        <v>-1321.6089999999999</v>
       </c>
       <c r="N20" t="s">
         <v>60</v>
@@ -1584,7 +1670,7 @@
         <v>148.34</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1622,7 +1708,7 @@
         <v>6420.67</v>
       </c>
       <c r="M21">
-        <v>-504.332</v>
+        <v>-504.33199999999999</v>
       </c>
       <c r="N21" t="s">
         <v>61</v>
@@ -1631,10 +1717,10 @@
         <v>69</v>
       </c>
       <c r="P21">
-        <v>130.14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>130.13999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1657,7 +1743,7 @@
         <v>15</v>
       </c>
       <c r="H22">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I22">
         <v>63</v>
@@ -1681,10 +1767,10 @@
         <v>69</v>
       </c>
       <c r="P22">
-        <v>71.51000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>71.510000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1707,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="H23">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I23">
         <v>212</v>
@@ -1722,7 +1808,7 @@
         <v>4425.49</v>
       </c>
       <c r="M23">
-        <v>-3.509</v>
+        <v>-3.5089999999999999</v>
       </c>
       <c r="N23" t="s">
         <v>65</v>
@@ -1734,7 +1820,7 @@
         <v>206.03</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1769,10 +1855,10 @@
         <v>3444</v>
       </c>
       <c r="L24">
-        <v>78127.28999999999</v>
+        <v>78127.289999999994</v>
       </c>
       <c r="M24">
-        <v>-959.718</v>
+        <v>-959.71799999999996</v>
       </c>
       <c r="N24" t="s">
         <v>62</v>
@@ -1784,7 +1870,7 @@
         <v>247.82</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1822,7 +1908,7 @@
         <v>4242.7</v>
       </c>
       <c r="M25">
-        <v>-210.844</v>
+        <v>-210.84399999999999</v>
       </c>
       <c r="N25" t="s">
         <v>66</v>
@@ -1834,7 +1920,7 @@
         <v>42.09</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1851,7 +1937,7 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1869,7 +1955,7 @@
         <v>13</v>
       </c>
       <c r="L26">
-        <v>261.4</v>
+        <v>261.39999999999998</v>
       </c>
       <c r="M26">
         <v>8.07</v>
@@ -1881,10 +1967,10 @@
         <v>68</v>
       </c>
       <c r="P26">
-        <v>138.89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>138.88999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1913,7 +1999,7 @@
         <v>3792</v>
       </c>
       <c r="J27">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K27">
         <v>3547</v>
@@ -1934,7 +2020,7 @@
         <v>388.88</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1951,7 +2037,7 @@
         <v>147</v>
       </c>
       <c r="F28">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -1972,7 +2058,7 @@
         <v>1682.55</v>
       </c>
       <c r="M28">
-        <v>-68.05500000000001</v>
+        <v>-68.055000000000007</v>
       </c>
       <c r="N28" t="s">
         <v>61</v>
@@ -1984,7 +2070,7 @@
         <v>127.12</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2034,7 +2120,7 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2051,7 +2137,7 @@
         <v>54</v>
       </c>
       <c r="F30">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -2063,7 +2149,7 @@
         <v>58</v>
       </c>
       <c r="J30">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K30">
         <v>63</v>
@@ -2072,7 +2158,7 @@
         <v>1264.52</v>
       </c>
       <c r="M30">
-        <v>5.229</v>
+        <v>5.2290000000000001</v>
       </c>
       <c r="N30" t="s">
         <v>65</v>
@@ -2084,7 +2170,7 @@
         <v>149.1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2134,7 +2220,7 @@
         <v>404.8</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2151,13 +2237,13 @@
         <v>593</v>
       </c>
       <c r="F32">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G32">
         <v>34</v>
       </c>
       <c r="H32">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I32">
         <v>426</v>
@@ -2169,10 +2255,10 @@
         <v>232</v>
       </c>
       <c r="L32">
-        <v>4631.94</v>
+        <v>4631.9399999999996</v>
       </c>
       <c r="M32">
-        <v>-194.385</v>
+        <v>-194.38499999999999</v>
       </c>
       <c r="N32" t="s">
         <v>66</v>
@@ -2184,7 +2270,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2222,7 +2308,7 @@
         <v>313.5</v>
       </c>
       <c r="M33">
-        <v>10.675</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="N33" t="s">
         <v>63</v>
@@ -2234,7 +2320,7 @@
         <v>90.91</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2272,7 +2358,7 @@
         <v>49153.07</v>
       </c>
       <c r="M34">
-        <v>-1397.734</v>
+        <v>-1397.7339999999999</v>
       </c>
       <c r="N34" t="s">
         <v>60</v>
@@ -2284,7 +2370,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2334,7 +2420,7 @@
         <v>76.12</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2384,7 +2470,7 @@
         <v>50.85</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2422,7 +2508,7 @@
         <v>168.54</v>
       </c>
       <c r="M37">
-        <v>-43.571</v>
+        <v>-43.570999999999998</v>
       </c>
       <c r="N37" t="s">
         <v>65</v>
@@ -2434,7 +2520,7 @@
         <v>87.69</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2472,7 +2558,7 @@
         <v>41275.06</v>
       </c>
       <c r="M38">
-        <v>-725.722</v>
+        <v>-725.72199999999998</v>
       </c>
       <c r="N38" t="s">
         <v>62</v>
@@ -2484,7 +2570,7 @@
         <v>260.42</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2522,7 +2608,7 @@
         <v>5531.15</v>
       </c>
       <c r="M39">
-        <v>-718.568</v>
+        <v>-718.56799999999998</v>
       </c>
       <c r="N39" t="s">
         <v>66</v>
@@ -2534,7 +2620,7 @@
         <v>55.09</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2557,13 +2643,13 @@
         <v>1968</v>
       </c>
       <c r="H40">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I40">
         <v>12262</v>
       </c>
       <c r="J40">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="K40">
         <v>10303</v>
@@ -2584,7 +2670,7 @@
         <v>301.82</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2622,7 +2708,7 @@
         <v>216628.45</v>
       </c>
       <c r="M41">
-        <v>-1307.273</v>
+        <v>-1307.2729999999999</v>
       </c>
       <c r="N41" t="s">
         <v>62</v>
@@ -2631,10 +2717,10 @@
         <v>68</v>
       </c>
       <c r="P41">
-        <v>571.8099999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>571.80999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2684,7 +2770,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2734,7 +2820,7 @@
         <v>371.45</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2772,7 +2858,7 @@
         <v>148681.16</v>
       </c>
       <c r="M44">
-        <v>-1380.324</v>
+        <v>-1380.3240000000001</v>
       </c>
       <c r="N44" t="s">
         <v>60</v>
@@ -2784,7 +2870,7 @@
         <v>238.26</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2822,7 +2908,7 @@
         <v>123475.45</v>
       </c>
       <c r="M45">
-        <v>-532.537</v>
+        <v>-532.53700000000003</v>
       </c>
       <c r="N45" t="s">
         <v>60</v>
@@ -2834,7 +2920,7 @@
         <v>478.73</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2872,7 +2958,7 @@
         <v>78661</v>
       </c>
       <c r="M46">
-        <v>-150.503</v>
+        <v>-150.50299999999999</v>
       </c>
       <c r="N46" t="s">
         <v>62</v>
@@ -2881,10 +2967,10 @@
         <v>68</v>
       </c>
       <c r="P46">
-        <v>528.4299999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>528.42999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2922,7 +3008,7 @@
         <v>60074.53</v>
       </c>
       <c r="M47">
-        <v>-205.997</v>
+        <v>-205.99700000000001</v>
       </c>
       <c r="N47" t="s">
         <v>62</v>
@@ -2934,7 +3020,7 @@
         <v>213.82</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2963,7 +3049,7 @@
         <v>2267</v>
       </c>
       <c r="J48">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K48">
         <v>2115</v>
@@ -2984,7 +3070,7 @@
         <v>363.07</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3034,7 +3120,7 @@
         <v>471.35</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3072,7 +3158,7 @@
         <v>44234.46</v>
       </c>
       <c r="M50">
-        <v>-184.295</v>
+        <v>-184.29499999999999</v>
       </c>
       <c r="N50" t="s">
         <v>60</v>
@@ -3081,10 +3167,10 @@
         <v>69</v>
       </c>
       <c r="P50">
-        <v>128.23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>128.22999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3122,7 +3208,7 @@
         <v>33678.17</v>
       </c>
       <c r="M51">
-        <v>-312.263</v>
+        <v>-312.26299999999998</v>
       </c>
       <c r="N51" t="s">
         <v>60</v>
@@ -3134,7 +3220,7 @@
         <v>334.47</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3184,7 +3270,7 @@
         <v>210.76</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3222,7 +3308,7 @@
         <v>27608.55</v>
       </c>
       <c r="M53">
-        <v>-368.016</v>
+        <v>-368.01600000000002</v>
       </c>
       <c r="N53" t="s">
         <v>61</v>
@@ -3234,7 +3320,7 @@
         <v>534.72</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3272,7 +3358,7 @@
         <v>31563.25</v>
       </c>
       <c r="M54">
-        <v>-56.691</v>
+        <v>-56.691000000000003</v>
       </c>
       <c r="N54" t="s">
         <v>62</v>
@@ -3284,7 +3370,7 @@
         <v>203.12</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3319,10 +3405,10 @@
         <v>851</v>
       </c>
       <c r="L55">
-        <v>19110.69</v>
+        <v>19110.689999999999</v>
       </c>
       <c r="M55">
-        <v>-297.275</v>
+        <v>-297.27499999999998</v>
       </c>
       <c r="N55" t="s">
         <v>60</v>
@@ -3331,10 +3417,10 @@
         <v>69</v>
       </c>
       <c r="P55">
-        <v>139.95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>139.94999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3363,7 +3449,7 @@
         <v>627</v>
       </c>
       <c r="J56">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K56">
         <v>516</v>
@@ -3372,7 +3458,7 @@
         <v>11853.27</v>
       </c>
       <c r="M56">
-        <v>-111.385</v>
+        <v>-111.38500000000001</v>
       </c>
       <c r="N56" t="s">
         <v>61</v>
@@ -3384,7 +3470,7 @@
         <v>277.07</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3431,10 +3517,10 @@
         <v>68</v>
       </c>
       <c r="P57">
-        <v>71.79000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>71.790000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3472,7 +3558,7 @@
         <v>11817.23</v>
       </c>
       <c r="M58">
-        <v>64.04600000000001</v>
+        <v>64.046000000000006</v>
       </c>
       <c r="N58" t="s">
         <v>61</v>
@@ -3484,7 +3570,7 @@
         <v>102.19</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3534,7 +3620,7 @@
         <v>56.93</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3572,7 +3658,7 @@
         <v>6494.87</v>
       </c>
       <c r="M60">
-        <v>-52.103</v>
+        <v>-52.103000000000002</v>
       </c>
       <c r="N60" t="s">
         <v>62</v>
@@ -3584,7 +3670,7 @@
         <v>233.04</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3622,7 +3708,7 @@
         <v>7835.88</v>
       </c>
       <c r="M61">
-        <v>3.171</v>
+        <v>3.1709999999999998</v>
       </c>
       <c r="N61" t="s">
         <v>62</v>
@@ -3634,7 +3720,7 @@
         <v>460.4</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3672,7 +3758,7 @@
         <v>5752.61</v>
       </c>
       <c r="M62">
-        <v>-54.539</v>
+        <v>-54.539000000000001</v>
       </c>
       <c r="N62" t="s">
         <v>65</v>
@@ -3681,10 +3767,10 @@
         <v>68</v>
       </c>
       <c r="P62">
-        <v>536.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>536.70000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3734,7 +3820,7 @@
         <v>85.66</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3784,7 +3870,7 @@
         <v>58.96</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3822,7 +3908,7 @@
         <v>2205.34</v>
       </c>
       <c r="M65">
-        <v>-76.22199999999999</v>
+        <v>-76.221999999999994</v>
       </c>
       <c r="N65" t="s">
         <v>65</v>
@@ -3834,7 +3920,7 @@
         <v>294.5</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3884,7 +3970,7 @@
         <v>179.51</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3922,7 +4008,7 @@
         <v>1955.08</v>
       </c>
       <c r="M67">
-        <v>-76.294</v>
+        <v>-76.293999999999997</v>
       </c>
       <c r="N67" t="s">
         <v>61</v>
@@ -3934,7 +4020,7 @@
         <v>149.82</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3984,7 +4070,7 @@
         <v>272.42</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4022,7 +4108,7 @@
         <v>1876.34</v>
       </c>
       <c r="M69">
-        <v>-65.527</v>
+        <v>-65.527000000000001</v>
       </c>
       <c r="N69" t="s">
         <v>63</v>
@@ -4034,7 +4120,7 @@
         <v>127.58</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4069,10 +4155,10 @@
         <v>51</v>
       </c>
       <c r="L70">
-        <v>1025.91</v>
+        <v>1025.9100000000001</v>
       </c>
       <c r="M70">
-        <v>-59.699</v>
+        <v>-59.698999999999998</v>
       </c>
       <c r="N70" t="s">
         <v>61</v>
@@ -4084,7 +4170,7 @@
         <v>85.19</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4122,7 +4208,7 @@
         <v>1226.22</v>
       </c>
       <c r="M71">
-        <v>-31.685</v>
+        <v>-31.684999999999999</v>
       </c>
       <c r="N71" t="s">
         <v>65</v>
@@ -4131,10 +4217,10 @@
         <v>69</v>
       </c>
       <c r="P71">
-        <v>129.17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>129.16999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4184,7 +4270,7 @@
         <v>112.09</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4207,7 +4293,7 @@
         <v>19</v>
       </c>
       <c r="H73">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I73">
         <v>68</v>
@@ -4222,7 +4308,7 @@
         <v>650.73</v>
       </c>
       <c r="M73">
-        <v>-39.016</v>
+        <v>-39.015999999999998</v>
       </c>
       <c r="N73" t="s">
         <v>64</v>
@@ -4234,7 +4320,7 @@
         <v>83.23</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4281,10 +4367,10 @@
         <v>69</v>
       </c>
       <c r="P74">
-        <v>72.06999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>72.069999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4322,7 +4408,7 @@
         <v>822.51</v>
       </c>
       <c r="M75">
-        <v>35.132</v>
+        <v>35.131999999999998</v>
       </c>
       <c r="N75" t="s">
         <v>63</v>
@@ -4334,7 +4420,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4357,13 +4443,13 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I76">
         <v>6</v>
       </c>
       <c r="J76">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4384,7 +4470,7 @@
         <v>89.55</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4434,7 +4520,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4484,7 +4570,7 @@
         <v>120.08</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4522,7 +4608,7 @@
         <v>196210.87</v>
       </c>
       <c r="M79">
-        <v>-724.153</v>
+        <v>-724.15300000000002</v>
       </c>
       <c r="N79" t="s">
         <v>62</v>
@@ -4534,7 +4620,7 @@
         <v>294.56</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4584,7 +4670,7 @@
         <v>584.64</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4607,7 +4693,7 @@
         <v>1034</v>
       </c>
       <c r="H81">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I81">
         <v>8069</v>
@@ -4634,7 +4720,7 @@
         <v>386.46</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4663,7 +4749,7 @@
         <v>6628</v>
       </c>
       <c r="J82">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K82">
         <v>5604</v>
@@ -4684,7 +4770,7 @@
         <v>248.15</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4722,7 +4808,7 @@
         <v>87840.47</v>
       </c>
       <c r="M83">
-        <v>-975.676</v>
+        <v>-975.67600000000004</v>
       </c>
       <c r="N83" t="s">
         <v>60</v>
@@ -4734,7 +4820,7 @@
         <v>507.12</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4772,7 +4858,7 @@
         <v>73096.84</v>
       </c>
       <c r="M84">
-        <v>29.101</v>
+        <v>29.100999999999999</v>
       </c>
       <c r="N84" t="s">
         <v>62</v>
@@ -4784,7 +4870,7 @@
         <v>544.53</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4822,7 +4908,7 @@
         <v>57157.19</v>
       </c>
       <c r="M85">
-        <v>-76.26300000000001</v>
+        <v>-76.263000000000005</v>
       </c>
       <c r="N85" t="s">
         <v>62</v>
@@ -4834,7 +4920,7 @@
         <v>227.28</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4872,7 +4958,7 @@
         <v>44401.87</v>
       </c>
       <c r="M86">
-        <v>-229.336</v>
+        <v>-229.33600000000001</v>
       </c>
       <c r="N86" t="s">
         <v>60</v>
@@ -4884,7 +4970,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4907,13 +4993,13 @@
         <v>216</v>
       </c>
       <c r="H87">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I87">
         <v>1912</v>
       </c>
       <c r="J87">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K87">
         <v>1451</v>
@@ -4922,7 +5008,7 @@
         <v>34236.93</v>
       </c>
       <c r="M87">
-        <v>-461.198</v>
+        <v>-461.19799999999998</v>
       </c>
       <c r="N87" t="s">
         <v>60</v>
@@ -4934,7 +5020,7 @@
         <v>360.48</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4984,7 +5070,7 @@
         <v>468.39</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5022,7 +5108,7 @@
         <v>35526.39</v>
       </c>
       <c r="M89">
-        <v>-22.432</v>
+        <v>-22.431999999999999</v>
       </c>
       <c r="N89" t="s">
         <v>60</v>
@@ -5034,7 +5120,7 @@
         <v>434.1</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5072,7 +5158,7 @@
         <v>25744.04</v>
       </c>
       <c r="M90">
-        <v>-149.243</v>
+        <v>-149.24299999999999</v>
       </c>
       <c r="N90" t="s">
         <v>61</v>
@@ -5084,7 +5170,7 @@
         <v>237.98</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5122,7 +5208,7 @@
         <v>24921.42</v>
       </c>
       <c r="M91">
-        <v>-92.089</v>
+        <v>-92.088999999999999</v>
       </c>
       <c r="N91" t="s">
         <v>61</v>
@@ -5134,7 +5220,7 @@
         <v>538.6</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5172,7 +5258,7 @@
         <v>20744.22</v>
       </c>
       <c r="M92">
-        <v>-149.269</v>
+        <v>-149.26900000000001</v>
       </c>
       <c r="N92" t="s">
         <v>60</v>
@@ -5184,7 +5270,7 @@
         <v>175.89</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5219,10 +5305,10 @@
         <v>753</v>
       </c>
       <c r="L93">
-        <v>16455.92</v>
+        <v>16455.919999999998</v>
       </c>
       <c r="M93">
-        <v>-72.812</v>
+        <v>-72.811999999999998</v>
       </c>
       <c r="N93" t="s">
         <v>62</v>
@@ -5234,7 +5320,7 @@
         <v>177.44</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5269,10 +5355,10 @@
         <v>249</v>
       </c>
       <c r="L94">
-        <v>4979.44</v>
+        <v>4979.4399999999996</v>
       </c>
       <c r="M94">
-        <v>-325.007</v>
+        <v>-325.00700000000001</v>
       </c>
       <c r="N94" t="s">
         <v>66</v>
@@ -5284,7 +5370,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5334,7 +5420,7 @@
         <v>364.49</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5351,7 +5437,7 @@
         <v>1181</v>
       </c>
       <c r="F96">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G96">
         <v>54</v>
@@ -5372,7 +5458,7 @@
         <v>6664.23</v>
       </c>
       <c r="M96">
-        <v>-192.354</v>
+        <v>-192.35400000000001</v>
       </c>
       <c r="N96" t="s">
         <v>61</v>
@@ -5384,7 +5470,7 @@
         <v>122.87</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5422,7 +5508,7 @@
         <v>9718.82</v>
       </c>
       <c r="M97">
-        <v>-50.676</v>
+        <v>-50.676000000000002</v>
       </c>
       <c r="N97" t="s">
         <v>61</v>
@@ -5431,10 +5517,10 @@
         <v>68</v>
       </c>
       <c r="P97">
-        <v>276.97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+        <v>276.97000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5472,7 +5558,7 @@
         <v>3144.2</v>
       </c>
       <c r="M98">
-        <v>-242.776</v>
+        <v>-242.77600000000001</v>
       </c>
       <c r="N98" t="s">
         <v>66</v>
@@ -5484,7 +5570,7 @@
         <v>63.35</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5522,7 +5608,7 @@
         <v>6807.69</v>
       </c>
       <c r="M99">
-        <v>-65.172</v>
+        <v>-65.171999999999997</v>
       </c>
       <c r="N99" t="s">
         <v>65</v>
@@ -5534,7 +5620,7 @@
         <v>184.84</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5569,7 +5655,7 @@
         <v>251</v>
       </c>
       <c r="L100">
-        <v>5241.81</v>
+        <v>5241.8100000000004</v>
       </c>
       <c r="M100">
         <v>-28.119</v>
@@ -5584,7 +5670,7 @@
         <v>509.12</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5622,7 +5708,7 @@
         <v>4232.7</v>
       </c>
       <c r="M101">
-        <v>-64.595</v>
+        <v>-64.594999999999999</v>
       </c>
       <c r="N101" t="s">
         <v>62</v>
@@ -5634,7 +5720,7 @@
         <v>216.73</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5672,7 +5758,7 @@
         <v>4050.38</v>
       </c>
       <c r="M102">
-        <v>-37.973</v>
+        <v>-37.972999999999999</v>
       </c>
       <c r="N102" t="s">
         <v>65</v>
@@ -5684,7 +5770,7 @@
         <v>382.17</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5722,7 +5808,7 @@
         <v>2960.84</v>
       </c>
       <c r="M103">
-        <v>-96.196</v>
+        <v>-96.195999999999998</v>
       </c>
       <c r="N103" t="s">
         <v>65</v>
@@ -5734,7 +5820,7 @@
         <v>185.56</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5772,7 +5858,7 @@
         <v>5500.5</v>
       </c>
       <c r="M104">
-        <v>-9.519</v>
+        <v>-9.5190000000000001</v>
       </c>
       <c r="N104" t="s">
         <v>66</v>
@@ -5784,7 +5870,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5834,7 +5920,7 @@
         <v>117.42</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5851,7 +5937,7 @@
         <v>661</v>
       </c>
       <c r="F106">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G106">
         <v>25</v>
@@ -5884,7 +5970,7 @@
         <v>24.26</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5922,7 +6008,7 @@
         <v>1430.86</v>
       </c>
       <c r="M107">
-        <v>-96.952</v>
+        <v>-96.951999999999998</v>
       </c>
       <c r="N107" t="s">
         <v>63</v>
@@ -5931,10 +6017,10 @@
         <v>69</v>
       </c>
       <c r="P107">
-        <v>152.27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16">
+        <v>152.27000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5963,7 +6049,7 @@
         <v>134</v>
       </c>
       <c r="J108">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K108">
         <v>121</v>
@@ -5984,7 +6070,7 @@
         <v>165.43</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6019,10 +6105,10 @@
         <v>110</v>
       </c>
       <c r="L109">
-        <v>2197.05</v>
+        <v>2197.0500000000002</v>
       </c>
       <c r="M109">
-        <v>-20.139</v>
+        <v>-20.138999999999999</v>
       </c>
       <c r="N109" t="s">
         <v>63</v>
@@ -6034,7 +6120,7 @@
         <v>252.92</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6072,7 +6158,7 @@
         <v>2728.4</v>
       </c>
       <c r="M110">
-        <v>21.998</v>
+        <v>21.998000000000001</v>
       </c>
       <c r="N110" t="s">
         <v>64</v>
@@ -6084,7 +6170,7 @@
         <v>104.21</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6122,7 +6208,7 @@
         <v>235.27</v>
       </c>
       <c r="M111">
-        <v>-27.233</v>
+        <v>-27.233000000000001</v>
       </c>
       <c r="N111" t="s">
         <v>64</v>
@@ -6134,7 +6220,7 @@
         <v>69.64</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6163,7 +6249,7 @@
         <v>6</v>
       </c>
       <c r="J112">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -6184,7 +6270,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6222,7 +6308,7 @@
         <v>28.93</v>
       </c>
       <c r="M113">
-        <v>-2.553</v>
+        <v>-2.5529999999999999</v>
       </c>
       <c r="N113" t="s">
         <v>63</v>
@@ -6231,10 +6317,10 @@
         <v>69</v>
       </c>
       <c r="P113">
-        <v>74.06999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16">
+        <v>74.069999999999993</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6284,7 +6370,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6313,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="J115">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -6334,7 +6420,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6372,7 +6458,7 @@
         <v>285638.3</v>
       </c>
       <c r="M116">
-        <v>1507.685</v>
+        <v>1507.6849999999999</v>
       </c>
       <c r="N116" t="s">
         <v>60</v>
@@ -6384,7 +6470,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6422,7 +6508,7 @@
         <v>252296.27</v>
       </c>
       <c r="M117">
-        <v>766.859</v>
+        <v>766.85900000000004</v>
       </c>
       <c r="N117" t="s">
         <v>62</v>
@@ -6434,7 +6520,7 @@
         <v>322.31</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6472,7 +6558,7 @@
         <v>210096.13</v>
       </c>
       <c r="M118">
-        <v>-527.249</v>
+        <v>-527.24900000000002</v>
       </c>
       <c r="N118" t="s">
         <v>62</v>
@@ -6484,7 +6570,7 @@
         <v>594.59</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6513,7 +6599,7 @@
         <v>9461</v>
       </c>
       <c r="J119">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K119">
         <v>8186</v>
@@ -6522,7 +6608,7 @@
         <v>171724.63</v>
       </c>
       <c r="M119">
-        <v>-1274.747</v>
+        <v>-1274.7470000000001</v>
       </c>
       <c r="N119" t="s">
         <v>60</v>
@@ -6534,7 +6620,7 @@
         <v>384.62</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6557,22 +6643,22 @@
         <v>1393</v>
       </c>
       <c r="H120">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I120">
         <v>7192</v>
       </c>
       <c r="J120">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K120">
         <v>7955</v>
       </c>
       <c r="L120">
-        <v>166656.05</v>
+        <v>166656.04999999999</v>
       </c>
       <c r="M120">
-        <v>762.921</v>
+        <v>762.92100000000005</v>
       </c>
       <c r="N120" t="s">
         <v>60</v>
@@ -6584,7 +6670,7 @@
         <v>255.92</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6634,7 +6720,7 @@
         <v>444.49</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6657,7 +6743,7 @@
         <v>621</v>
       </c>
       <c r="H122">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I122">
         <v>3435</v>
@@ -6669,10 +6755,10 @@
         <v>3487</v>
       </c>
       <c r="L122">
-        <v>74522.53999999999</v>
+        <v>74522.539999999994</v>
       </c>
       <c r="M122">
-        <v>51.685</v>
+        <v>51.685000000000002</v>
       </c>
       <c r="N122" t="s">
         <v>62</v>
@@ -6684,7 +6770,7 @@
         <v>253.97</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6722,7 +6808,7 @@
         <v>69872.95</v>
       </c>
       <c r="M123">
-        <v>168.373</v>
+        <v>168.37299999999999</v>
       </c>
       <c r="N123" t="s">
         <v>62</v>
@@ -6734,7 +6820,7 @@
         <v>481.61</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6772,7 +6858,7 @@
         <v>49148.43</v>
       </c>
       <c r="M124">
-        <v>4.066</v>
+        <v>4.0659999999999998</v>
       </c>
       <c r="N124" t="s">
         <v>62</v>
@@ -6784,7 +6870,7 @@
         <v>336.57</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6834,7 +6920,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6863,16 +6949,16 @@
         <v>1734</v>
       </c>
       <c r="J126">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K126">
         <v>1654</v>
       </c>
       <c r="L126">
-        <v>34980.16</v>
+        <v>34980.160000000003</v>
       </c>
       <c r="M126">
-        <v>-79.595</v>
+        <v>-79.594999999999999</v>
       </c>
       <c r="N126" t="s">
         <v>60</v>
@@ -6884,7 +6970,7 @@
         <v>343.77</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6907,7 +6993,7 @@
         <v>269</v>
       </c>
       <c r="H127">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I127">
         <v>1546</v>
@@ -6922,7 +7008,7 @@
         <v>40122.76</v>
       </c>
       <c r="M127">
-        <v>342.979</v>
+        <v>342.97899999999998</v>
       </c>
       <c r="N127" t="s">
         <v>61</v>
@@ -6934,7 +7020,7 @@
         <v>267.06</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6972,7 +7058,7 @@
         <v>25311.15</v>
       </c>
       <c r="M128">
-        <v>-265.424</v>
+        <v>-265.42399999999998</v>
       </c>
       <c r="N128" t="s">
         <v>62</v>
@@ -6981,10 +7067,10 @@
         <v>69</v>
       </c>
       <c r="P128">
-        <v>153.45</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16">
+        <v>153.44999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7019,10 +7105,10 @@
         <v>1179</v>
       </c>
       <c r="L129">
-        <v>25104.24</v>
+        <v>25104.240000000002</v>
       </c>
       <c r="M129">
-        <v>97.764</v>
+        <v>97.763999999999996</v>
       </c>
       <c r="N129" t="s">
         <v>61</v>
@@ -7034,7 +7120,7 @@
         <v>462.76</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7072,7 +7158,7 @@
         <v>12245.37</v>
       </c>
       <c r="M130">
-        <v>-27.854</v>
+        <v>-27.853999999999999</v>
       </c>
       <c r="N130" t="s">
         <v>61</v>
@@ -7084,7 +7170,7 @@
         <v>130.43</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7119,10 +7205,10 @@
         <v>472</v>
       </c>
       <c r="L131">
-        <v>9859.200000000001</v>
+        <v>9859.2000000000007</v>
       </c>
       <c r="M131">
-        <v>-27.457</v>
+        <v>-27.457000000000001</v>
       </c>
       <c r="N131" t="s">
         <v>65</v>
@@ -7134,7 +7220,7 @@
         <v>241.65</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7172,7 +7258,7 @@
         <v>11375.79</v>
       </c>
       <c r="M132">
-        <v>-7.255</v>
+        <v>-7.2549999999999999</v>
       </c>
       <c r="N132" t="s">
         <v>61</v>
@@ -7181,10 +7267,10 @@
         <v>68</v>
       </c>
       <c r="P132">
-        <v>275.71</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
+        <v>275.70999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7201,7 +7287,7 @@
         <v>952</v>
       </c>
       <c r="F133">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G133">
         <v>61</v>
@@ -7219,10 +7305,10 @@
         <v>423</v>
       </c>
       <c r="L133">
-        <v>8585.469999999999</v>
+        <v>8585.4699999999993</v>
       </c>
       <c r="M133">
-        <v>-45.085</v>
+        <v>-45.085000000000001</v>
       </c>
       <c r="N133" t="s">
         <v>65</v>
@@ -7231,10 +7317,10 @@
         <v>69</v>
       </c>
       <c r="P133">
-        <v>142.73</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
+        <v>142.72999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7257,7 +7343,7 @@
         <v>37</v>
       </c>
       <c r="H134">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I134">
         <v>447</v>
@@ -7272,7 +7358,7 @@
         <v>3967.4</v>
       </c>
       <c r="M134">
-        <v>-248.605</v>
+        <v>-248.60499999999999</v>
       </c>
       <c r="N134" t="s">
         <v>66</v>
@@ -7284,7 +7370,7 @@
         <v>60.53</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7301,7 +7387,7 @@
         <v>280</v>
       </c>
       <c r="F135">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G135">
         <v>59</v>
@@ -7334,7 +7420,7 @@
         <v>437.31</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7357,7 +7443,7 @@
         <v>82</v>
       </c>
       <c r="H136">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I136">
         <v>418</v>
@@ -7384,7 +7470,7 @@
         <v>165.61</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7407,7 +7493,7 @@
         <v>72</v>
       </c>
       <c r="H137">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I137">
         <v>412</v>
@@ -7422,7 +7508,7 @@
         <v>7875.81</v>
       </c>
       <c r="M137">
-        <v>-40.219</v>
+        <v>-40.219000000000001</v>
       </c>
       <c r="N137" t="s">
         <v>62</v>
@@ -7434,7 +7520,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7463,7 +7549,7 @@
         <v>407</v>
       </c>
       <c r="J138">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K138">
         <v>340</v>
@@ -7472,7 +7558,7 @@
         <v>7222.9</v>
       </c>
       <c r="M138">
-        <v>-66.81999999999999</v>
+        <v>-66.819999999999993</v>
       </c>
       <c r="N138" t="s">
         <v>60</v>
@@ -7484,7 +7570,7 @@
         <v>291.13</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7522,7 +7608,7 @@
         <v>10932.34</v>
       </c>
       <c r="M139">
-        <v>181.597</v>
+        <v>181.59700000000001</v>
       </c>
       <c r="N139" t="s">
         <v>61</v>
@@ -7534,7 +7620,7 @@
         <v>98.05</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7557,7 +7643,7 @@
         <v>42</v>
       </c>
       <c r="H140">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I140">
         <v>290</v>
@@ -7572,7 +7658,7 @@
         <v>6331.84</v>
       </c>
       <c r="M140">
-        <v>5.253</v>
+        <v>5.2530000000000001</v>
       </c>
       <c r="N140" t="s">
         <v>65</v>
@@ -7584,7 +7670,7 @@
         <v>205.97</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7634,7 +7720,7 @@
         <v>434.51</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7669,10 +7755,10 @@
         <v>115</v>
       </c>
       <c r="L142">
-        <v>2300.72</v>
+        <v>2300.7199999999998</v>
       </c>
       <c r="M142">
-        <v>-161.951</v>
+        <v>-161.95099999999999</v>
       </c>
       <c r="N142" t="s">
         <v>66</v>
@@ -7681,10 +7767,10 @@
         <v>69</v>
       </c>
       <c r="P142">
-        <v>32.77</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
+        <v>32.770000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7719,7 +7805,7 @@
         <v>122</v>
       </c>
       <c r="L143">
-        <v>2612.68</v>
+        <v>2612.6799999999998</v>
       </c>
       <c r="M143">
         <v>-104.006</v>
@@ -7734,7 +7820,7 @@
         <v>46.18</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7757,7 +7843,7 @@
         <v>22</v>
       </c>
       <c r="H144">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I144">
         <v>190</v>
@@ -7769,10 +7855,10 @@
         <v>184</v>
       </c>
       <c r="L144">
-        <v>4345.15</v>
+        <v>4345.1499999999996</v>
       </c>
       <c r="M144">
-        <v>-6.287</v>
+        <v>-6.2869999999999999</v>
       </c>
       <c r="N144" t="s">
         <v>61</v>
@@ -7784,7 +7870,7 @@
         <v>176.91</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7822,7 +7908,7 @@
         <v>2152.46</v>
       </c>
       <c r="M145">
-        <v>-64.371</v>
+        <v>-64.370999999999995</v>
       </c>
       <c r="N145" t="s">
         <v>66</v>
@@ -7834,7 +7920,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7872,7 +7958,7 @@
         <v>2793.15</v>
       </c>
       <c r="M146">
-        <v>-17.826</v>
+        <v>-17.826000000000001</v>
       </c>
       <c r="N146" t="s">
         <v>63</v>
@@ -7884,7 +7970,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7907,7 +7993,7 @@
         <v>11</v>
       </c>
       <c r="H147">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I147">
         <v>111</v>
@@ -7922,7 +8008,7 @@
         <v>1626.05</v>
       </c>
       <c r="M147">
-        <v>-29.694</v>
+        <v>-29.693999999999999</v>
       </c>
       <c r="N147" t="s">
         <v>63</v>
@@ -7934,7 +8020,7 @@
         <v>246.12</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7951,7 +8037,7 @@
         <v>208</v>
       </c>
       <c r="F148">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G148">
         <v>12</v>
@@ -7969,10 +8055,10 @@
         <v>14</v>
       </c>
       <c r="L148">
-        <v>309.09</v>
+        <v>309.08999999999997</v>
       </c>
       <c r="M148">
-        <v>-30.542</v>
+        <v>-30.542000000000002</v>
       </c>
       <c r="N148" t="s">
         <v>64</v>
@@ -7984,7 +8070,7 @@
         <v>63.47</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8007,7 +8093,7 @@
         <v>13</v>
       </c>
       <c r="H149">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I149">
         <v>35</v>
@@ -8034,7 +8120,7 @@
         <v>76.59</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8084,7 +8170,7 @@
         <v>181.82</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8107,13 +8193,13 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I151">
         <v>5</v>
       </c>
       <c r="J151">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K151">
         <v>8</v>
@@ -8134,7 +8220,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8151,7 +8237,7 @@
         <v>14</v>
       </c>
       <c r="F152">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -8184,7 +8270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8222,7 +8308,7 @@
         <v>677188.1</v>
       </c>
       <c r="M153">
-        <v>-5605.297</v>
+        <v>-5605.2969999999996</v>
       </c>
       <c r="N153" t="s">
         <v>60</v>
@@ -8231,10 +8317,10 @@
         <v>69</v>
       </c>
       <c r="P153">
-        <v>138.39</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16">
+        <v>138.38999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8272,7 +8358,7 @@
         <v>497790.81</v>
       </c>
       <c r="M154">
-        <v>-3478.644</v>
+        <v>-3478.6439999999998</v>
       </c>
       <c r="N154" t="s">
         <v>60</v>
@@ -8284,7 +8370,7 @@
         <v>372.18</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8322,7 +8408,7 @@
         <v>725773.92</v>
       </c>
       <c r="M155">
-        <v>-3211.121</v>
+        <v>-3211.1210000000001</v>
       </c>
       <c r="N155" t="s">
         <v>62</v>
@@ -8334,7 +8420,7 @@
         <v>588.9</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8372,7 +8458,7 @@
         <v>8733.41</v>
       </c>
       <c r="M156">
-        <v>-2170.044</v>
+        <v>-2170.0439999999999</v>
       </c>
       <c r="N156" t="s">
         <v>66</v>
@@ -8384,7 +8470,7 @@
         <v>168.4</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8422,7 +8508,7 @@
         <v>345891.36</v>
       </c>
       <c r="M157">
-        <v>-2086.3</v>
+        <v>-2086.3000000000002</v>
       </c>
       <c r="N157" t="s">
         <v>60</v>
@@ -8434,7 +8520,7 @@
         <v>483.89</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8469,10 +8555,10 @@
         <v>3260</v>
       </c>
       <c r="L158">
-        <v>66443.24000000001</v>
+        <v>66443.240000000005</v>
       </c>
       <c r="M158">
-        <v>-1814.562</v>
+        <v>-1814.5619999999999</v>
       </c>
       <c r="N158" t="s">
         <v>65</v>
@@ -8484,7 +8570,7 @@
         <v>159.63</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8513,7 +8599,7 @@
         <v>5764</v>
       </c>
       <c r="J159">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K159">
         <v>4472</v>
@@ -8522,7 +8608,7 @@
         <v>92805.77</v>
       </c>
       <c r="M159">
-        <v>-1291.908</v>
+        <v>-1291.9079999999999</v>
       </c>
       <c r="N159" t="s">
         <v>62</v>
@@ -8534,7 +8620,7 @@
         <v>114.32</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8584,7 +8670,7 @@
         <v>170.68</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8619,10 +8705,10 @@
         <v>42440</v>
       </c>
       <c r="L161">
-        <v>886095.3100000001</v>
+        <v>886095.31</v>
       </c>
       <c r="M161">
-        <v>-1101.899</v>
+        <v>-1101.8989999999999</v>
       </c>
       <c r="N161" t="s">
         <v>62</v>
@@ -8634,7 +8720,7 @@
         <v>313.68</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8663,7 +8749,7 @@
         <v>2916</v>
       </c>
       <c r="J162">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K162">
         <v>1981</v>
@@ -8672,7 +8758,7 @@
         <v>42318.64</v>
       </c>
       <c r="M162">
-        <v>-935.295</v>
+        <v>-935.29499999999996</v>
       </c>
       <c r="N162" t="s">
         <v>61</v>
@@ -8684,7 +8770,7 @@
         <v>117.93</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8722,7 +8808,7 @@
         <v>44985.83</v>
       </c>
       <c r="M163">
-        <v>-890.164</v>
+        <v>-890.16399999999999</v>
       </c>
       <c r="N163" t="s">
         <v>61</v>
@@ -8731,10 +8817,10 @@
         <v>69</v>
       </c>
       <c r="P163">
-        <v>139.77</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
+        <v>139.77000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8757,7 +8843,7 @@
         <v>808</v>
       </c>
       <c r="H164">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I164">
         <v>5651</v>
@@ -8772,7 +8858,7 @@
         <v>99420.38</v>
       </c>
       <c r="M164">
-        <v>-877.986</v>
+        <v>-877.98599999999999</v>
       </c>
       <c r="N164" t="s">
         <v>61</v>
@@ -8781,10 +8867,10 @@
         <v>69</v>
       </c>
       <c r="P164">
-        <v>309.22</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16">
+        <v>309.22000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8822,7 +8908,7 @@
         <v>8962.23</v>
       </c>
       <c r="M165">
-        <v>-696.152</v>
+        <v>-696.15200000000004</v>
       </c>
       <c r="N165" t="s">
         <v>66</v>
@@ -8834,7 +8920,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8872,7 +8958,7 @@
         <v>215898.79</v>
       </c>
       <c r="M166">
-        <v>-600.456</v>
+        <v>-600.45600000000002</v>
       </c>
       <c r="N166" t="s">
         <v>62</v>
@@ -8881,10 +8967,10 @@
         <v>68</v>
       </c>
       <c r="P166">
-        <v>272.97</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16">
+        <v>272.97000000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8901,7 +8987,7 @@
         <v>1663</v>
       </c>
       <c r="F167">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G167">
         <v>182</v>
@@ -8922,7 +9008,7 @@
         <v>25635.15</v>
       </c>
       <c r="M167">
-        <v>-435.967</v>
+        <v>-435.96699999999998</v>
       </c>
       <c r="N167" t="s">
         <v>65</v>
@@ -8931,10 +9017,10 @@
         <v>68</v>
       </c>
       <c r="P167">
-        <v>131.05</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
+        <v>131.05000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8951,7 +9037,7 @@
         <v>927</v>
       </c>
       <c r="F168">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G168">
         <v>20</v>
@@ -8972,7 +9058,7 @@
         <v>1518.51</v>
       </c>
       <c r="M168">
-        <v>-300.066</v>
+        <v>-300.06599999999997</v>
       </c>
       <c r="N168" t="s">
         <v>66</v>
@@ -8984,7 +9070,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9022,7 +9108,7 @@
         <v>13341.64</v>
       </c>
       <c r="M169">
-        <v>-288.085</v>
+        <v>-288.08499999999998</v>
       </c>
       <c r="N169" t="s">
         <v>60</v>
@@ -9034,7 +9120,7 @@
         <v>127.27</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9063,16 +9149,16 @@
         <v>1102</v>
       </c>
       <c r="J170">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K170">
         <v>844</v>
       </c>
       <c r="L170">
-        <v>19822.4</v>
+        <v>19822.400000000001</v>
       </c>
       <c r="M170">
-        <v>-257.638</v>
+        <v>-257.63799999999998</v>
       </c>
       <c r="N170" t="s">
         <v>61</v>
@@ -9084,7 +9170,7 @@
         <v>177.74</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9122,7 +9208,7 @@
         <v>22711.98</v>
       </c>
       <c r="M171">
-        <v>-253.801</v>
+        <v>-253.80099999999999</v>
       </c>
       <c r="N171" t="s">
         <v>61</v>
@@ -9134,7 +9220,7 @@
         <v>178.55</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9184,7 +9270,7 @@
         <v>349.97</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9213,7 +9299,7 @@
         <v>386</v>
       </c>
       <c r="J173">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K173">
         <v>165</v>
@@ -9222,7 +9308,7 @@
         <v>3302.8</v>
       </c>
       <c r="M173">
-        <v>-220.842</v>
+        <v>-220.84200000000001</v>
       </c>
       <c r="N173" t="s">
         <v>66</v>
@@ -9234,7 +9320,7 @@
         <v>37.61</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9251,7 +9337,7 @@
         <v>871</v>
       </c>
       <c r="F174">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G174">
         <v>54</v>
@@ -9272,7 +9358,7 @@
         <v>6622.27</v>
       </c>
       <c r="M174">
-        <v>-134.484</v>
+        <v>-134.48400000000001</v>
       </c>
       <c r="N174" t="s">
         <v>63</v>
@@ -9284,7 +9370,7 @@
         <v>127.42</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9301,7 +9387,7 @@
         <v>708</v>
       </c>
       <c r="F175">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G175">
         <v>137</v>
@@ -9319,7 +9405,7 @@
         <v>910</v>
       </c>
       <c r="L175">
-        <v>19932.69</v>
+        <v>19932.689999999999</v>
       </c>
       <c r="M175">
         <v>-129.125</v>
@@ -9334,7 +9420,7 @@
         <v>414.6</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9372,7 +9458,7 @@
         <v>5309.34</v>
       </c>
       <c r="M176">
-        <v>-84.485</v>
+        <v>-84.484999999999999</v>
       </c>
       <c r="N176" t="s">
         <v>63</v>
@@ -9384,7 +9470,7 @@
         <v>202.13</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -9413,7 +9499,7 @@
         <v>24149</v>
       </c>
       <c r="J177">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K177">
         <v>24071</v>
@@ -9434,7 +9520,7 @@
         <v>243.3</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -9484,7 +9570,7 @@
         <v>200.36</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -9534,7 +9620,7 @@
         <v>237.44</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -9557,7 +9643,7 @@
         <v>55</v>
       </c>
       <c r="H180">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I180">
         <v>134</v>
@@ -9569,10 +9655,10 @@
         <v>95</v>
       </c>
       <c r="L180">
-        <v>2156.07</v>
+        <v>2156.0700000000002</v>
       </c>
       <c r="M180">
-        <v>-38.959</v>
+        <v>-38.959000000000003</v>
       </c>
       <c r="N180" t="s">
         <v>64</v>
@@ -9581,10 +9667,10 @@
         <v>68</v>
       </c>
       <c r="P180">
-        <v>74.23999999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16">
+        <v>74.239999999999995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9634,7 +9720,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9669,10 +9755,10 @@
         <v>7</v>
       </c>
       <c r="L182">
-        <v>139.89</v>
+        <v>139.88999999999999</v>
       </c>
       <c r="M182">
-        <v>-11.005</v>
+        <v>-11.005000000000001</v>
       </c>
       <c r="N182" t="s">
         <v>63</v>
@@ -9681,10 +9767,10 @@
         <v>69</v>
       </c>
       <c r="P182">
-        <v>141.73</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16">
+        <v>141.72999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9734,7 +9820,7 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9772,7 +9858,7 @@
         <v>147.75</v>
       </c>
       <c r="M184">
-        <v>0.389</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="N184" t="s">
         <v>64</v>
@@ -9784,7 +9870,7 @@
         <v>33.49</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9813,16 +9899,16 @@
         <v>1118</v>
       </c>
       <c r="J185">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K185">
         <v>1121</v>
       </c>
       <c r="L185">
-        <v>22936.4</v>
+        <v>22936.400000000001</v>
       </c>
       <c r="M185">
-        <v>3.104</v>
+        <v>3.1040000000000001</v>
       </c>
       <c r="N185" t="s">
         <v>62</v>
@@ -9834,7 +9920,7 @@
         <v>191.83</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9857,7 +9943,7 @@
         <v>85</v>
       </c>
       <c r="H186">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I186">
         <v>641</v>
@@ -9881,10 +9967,10 @@
         <v>69</v>
       </c>
       <c r="P186">
-        <v>93.73999999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16">
+        <v>93.74</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9907,13 +9993,13 @@
         <v>7</v>
       </c>
       <c r="H187">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I187">
         <v>3</v>
       </c>
       <c r="J187">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K187">
         <v>45</v>
@@ -9922,7 +10008,7 @@
         <v>898.8</v>
       </c>
       <c r="M187">
-        <v>41.946</v>
+        <v>41.945999999999998</v>
       </c>
       <c r="N187" t="s">
         <v>67</v>
@@ -9934,7 +10020,7 @@
         <v>11.67</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9969,10 +10055,10 @@
         <v>3227</v>
       </c>
       <c r="L188">
-        <v>66672.28999999999</v>
+        <v>66672.289999999994</v>
       </c>
       <c r="M188">
-        <v>45.468</v>
+        <v>45.468000000000004</v>
       </c>
       <c r="N188" t="s">
         <v>61</v>
@@ -9984,7 +10070,7 @@
         <v>438.65</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10022,7 +10108,7 @@
         <v>129556.9</v>
       </c>
       <c r="M189">
-        <v>64.55200000000001</v>
+        <v>64.552000000000007</v>
       </c>
       <c r="N189" t="s">
         <v>60</v>
@@ -10031,10 +10117,10 @@
         <v>68</v>
       </c>
       <c r="P189">
-        <v>322.9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16">
+        <v>322.89999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10051,7 +10137,7 @@
         <v>266</v>
       </c>
       <c r="F190">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G190">
         <v>24</v>
@@ -10072,7 +10158,7 @@
         <v>3268.63</v>
       </c>
       <c r="M190">
-        <v>115.963</v>
+        <v>115.96299999999999</v>
       </c>
       <c r="N190" t="s">
         <v>67</v>
@@ -10084,7 +10170,7 @@
         <v>12.02</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10107,7 +10193,7 @@
         <v>1731</v>
       </c>
       <c r="H191">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I191">
         <v>10914</v>
@@ -10122,7 +10208,7 @@
         <v>236665.59</v>
       </c>
       <c r="M191">
-        <v>308.975</v>
+        <v>308.97500000000002</v>
       </c>
       <c r="N191" t="s">
         <v>62</v>
